--- a/storage/marketplace-sku-mapping/example.xlsx
+++ b/storage/marketplace-sku-mapping/example.xlsx
@@ -39,13 +39,13 @@
     <t>19223-AN</t>
   </si>
   <si>
-    <t>19223-A3</t>
-  </si>
-  <si>
-    <t>19223-AA-1A</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>mp_category_id</t>
+  </si>
+  <si>
+    <t>mp_sub_category_id</t>
+  </si>
+  <si>
+    <t>delivery_type</t>
   </si>
 </sst>
 </file>
@@ -135,7 +135,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -143,6 +143,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -419,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -427,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -438,36 +440,37 @@
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="40.5" customWidth="1"/>
     <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/storage/marketplace-sku-mapping/example.xlsx
+++ b/storage/marketplace-sku-mapping/example.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>19223-AA-NA</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>delivery_type</t>
+  </si>
+  <si>
+    <t>marketplace_id</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -145,6 +148,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -421,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -429,49 +438,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="40.5" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="2" max="3" width="40.5" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:7" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/marketplace-sku-mapping/example.xlsx
+++ b/storage/marketplace-sku-mapping/example.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>19223-AA-NA</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>marketplace_id</t>
+  </si>
+  <si>
+    <t>ASIN</t>
   </si>
 </sst>
 </file>
@@ -430,7 +433,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -454,7 +457,7 @@
     <col min="7" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:8" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -476,8 +479,11 @@
       <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1">
+    <row r="2" spans="1:8" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
